--- a/System Requirements Document/Use case descriptions Bird Reborn.xlsx
+++ b/System Requirements Document/Use case descriptions Bird Reborn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Conne\Documents\Don't open during a video\School\CCM\Software Engineering\System Requirement Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66398592-880A-4D5C-8B60-469C1791FE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118AB67E-AFF8-45AE-9D57-5D07DC5FDBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="View Verification Reason (CP)" sheetId="1" r:id="rId1"/>
@@ -19,23 +19,23 @@
     <sheet name="Add Content FilterTag (CP)" sheetId="4" r:id="rId4"/>
     <sheet name="Add Community Badge to Profile " sheetId="5" r:id="rId5"/>
     <sheet name="Remove Community Badge From Pro" sheetId="6" r:id="rId6"/>
-    <sheet name="Change Appwide Theme (Intials) " sheetId="7" r:id="rId7"/>
+    <sheet name="Change Appwide Theme (CP)" sheetId="7" r:id="rId7"/>
     <sheet name="Customize Appwide Theme (BM)" sheetId="8" r:id="rId8"/>
     <sheet name="Customize Profile Theme (BM)" sheetId="9" r:id="rId9"/>
-    <sheet name="Disable Users Profile Theme (BM" sheetId="10" r:id="rId10"/>
+    <sheet name="Disable Users Profile Theme (CP" sheetId="10" r:id="rId10"/>
     <sheet name="Disable All Profile Theme (BM)" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="tuYm0UoorqRxuPrxwmbKeWZrY2hSzEKIdOfqcVtkKao="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId16" roundtripDataChecksum="HRXCbqaF+rv1hHttmCmn6az/ARq8LbDGBAolp0yInl0="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="201">
   <si>
     <t>Use Case Title</t>
   </si>
@@ -430,16 +430,61 @@
     <t>User selects on icon to replace current badge with another one</t>
   </si>
   <si>
-    <t>*This needs to be completely done before final submission*</t>
+    <t>Change Appwide Theme</t>
   </si>
   <si>
-    <t>Full Description</t>
+    <t>A user wants to change their appwide theme to a pre-made one</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Appwide theme will be changed</t>
+  </si>
+  <si>
+    <t>User selects premade theme in themes menu (User wants to change their appwide theme)</t>
+  </si>
+  <si>
+    <t>User selects themes button in the display settings</t>
+  </si>
+  <si>
+    <t>1.1 Load themes menu with default "year round" themes first</t>
+  </si>
+  <si>
+    <t>User scrolls down in the menu</t>
+  </si>
+  <si>
+    <t>2.1 Load limited seasonal themes</t>
+  </si>
+  <si>
+    <t>2.2 Show current estimated time left in days or hours for seasonal themes</t>
+  </si>
+  <si>
+    <t>User selects a theme from the list</t>
+  </si>
+  <si>
+    <t>3.1 Load preview of the theme in settings</t>
+  </si>
+  <si>
+    <t>3.2 Show customization options for theme on bottom half of screen (if applicable)</t>
+  </si>
+  <si>
+    <t>User selects "Apply" button</t>
+  </si>
+  <si>
+    <t>4.1 Apply the appwide theme</t>
+  </si>
+  <si>
+    <t>4.2 Close themes menu and return to display settings menu</t>
+  </si>
+  <si>
+    <t>If selected theme is not customizable any further then do not show this menu</t>
+  </si>
+  <si>
+    <t>If user no longer wants to change their theme they can press the back button</t>
   </si>
   <si>
     <t>User wants to customize the appwide theme</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>User's created appwide theme is saved as a selectable appwide theme.</t>
@@ -652,9 +697,6 @@
     <t>User wants to disable another user's profile theme</t>
   </si>
   <si>
-    <t>*This needs to be adjusted before final submission*</t>
-  </si>
-  <si>
     <t>User wants to disable another user's profile theme from showing up</t>
   </si>
   <si>
@@ -667,43 +709,25 @@
     <t>User selects the disable profile theme button in the edit profile page</t>
   </si>
   <si>
-    <t>1.1 Confirmation Menu opens</t>
+    <t>User goes to another user with a profile theme's profile</t>
   </si>
   <si>
-    <t>User selects the confirm disable profile theme button</t>
+    <t>1.1 Load profile</t>
   </si>
   <si>
-    <t>2.1 Confrimation Menu closes</t>
+    <t>1.2 Load profile theme</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">2.2 Call </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">updateUserProfileSettings </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>use case</t>
-    </r>
+    <t>2.1 Open up more options dropdown</t>
   </si>
   <si>
-    <t>2.1 If user does not want to change profile theme, then user selects the cancel confimation button or presses the x button to close the menu and no settings are saved</t>
+    <t>User selects hide profile theme button</t>
+  </si>
+  <si>
+    <t>3.1 Revert theme of the users profile to the current user appwide theme</t>
+  </si>
+  <si>
+    <t>If user doesn't want to hide the users profile theme then they can tap away to close the more options dropdown</t>
   </si>
   <si>
     <t>User wants to disable enabled profile themes</t>
@@ -1049,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C996"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5108,7 +5132,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D997"/>
+  <dimension ref="A1:C998"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5121,19 +5145,16 @@
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5142,52 +5163,52 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5198,57 +5219,67 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>171</v>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>172</v>
+      <c r="C11" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>173</v>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>174</v>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2.1</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
@@ -5256,7 +5287,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
@@ -9175,6 +9206,10 @@
     <row r="997" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B997" s="2"/>
       <c r="C997" s="2"/>
+    </row>
+    <row r="998" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B998" s="2"/>
+      <c r="C998" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9186,7 +9221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9201,7 +9236,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -9219,7 +9254,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -9228,7 +9263,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -9237,7 +9272,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -9246,7 +9281,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -9255,7 +9290,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -9275,10 +9310,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -9286,17 +9321,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9311,7 +9346,7 @@
         <v>2.1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2"/>
     </row>
@@ -29757,7 +29792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33851,37 +33886,38 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:C1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="2" width="37.5703125" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" customWidth="1"/>
     <col min="4" max="4" width="52" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -33890,35 +33926,43 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -33929,117 +33973,149 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="B10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="B12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>4</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>5</v>
+      <c r="B14" s="2" t="s">
+        <v>128</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
@@ -37914,6 +37990,10 @@
     <row r="1000" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1000" s="2"/>
       <c r="C1000" s="2"/>
+    </row>
+    <row r="1001" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -37940,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -37958,7 +38038,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -37967,7 +38047,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -37976,7 +38056,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -37985,7 +38065,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -37994,7 +38074,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -38014,17 +38094,17 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -38032,10 +38112,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -38043,10 +38123,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -38054,17 +38134,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -38072,16 +38152,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -38089,10 +38169,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -38100,15 +38180,15 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -38123,7 +38203,7 @@
         <v>2.1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -38132,7 +38212,7 @@
         <v>3.1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -38141,7 +38221,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -38150,7 +38230,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2"/>
     </row>
@@ -38159,7 +38239,7 @@
         <v>6.1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C25" s="2"/>
     </row>
@@ -38168,7 +38248,7 @@
         <v>7.1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -42097,7 +42177,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -42106,7 +42186,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -42115,7 +42195,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -42124,7 +42204,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -42133,7 +42213,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -42142,7 +42222,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -42151,7 +42231,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -42171,17 +42251,17 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -42189,10 +42269,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -42200,10 +42280,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -42211,17 +42291,17 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -42229,17 +42309,17 @@
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -42247,10 +42327,10 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -42258,10 +42338,10 @@
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -42276,7 +42356,7 @@
         <v>2.1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
     </row>
@@ -42285,7 +42365,7 @@
         <v>3.1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2"/>
     </row>
@@ -42294,7 +42374,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2"/>
     </row>
@@ -42303,7 +42383,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C23" s="2"/>
     </row>
@@ -42312,7 +42392,7 @@
         <v>6.1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="C24" s="2"/>
     </row>
@@ -42321,7 +42401,7 @@
         <v>7.1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="C25" s="2"/>
     </row>
